--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il27-Il27ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il27-Il27ra.xlsx
@@ -549,10 +549,10 @@
         <v>0.233212</v>
       </c>
       <c r="I2">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="J2">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.051123666666667</v>
+        <v>2.373213</v>
       </c>
       <c r="N2">
-        <v>3.153371</v>
+        <v>7.119638999999999</v>
       </c>
       <c r="O2">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="P2">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="Q2">
-        <v>0.08171155085022223</v>
+        <v>0.184487250052</v>
       </c>
       <c r="R2">
-        <v>0.7354039576520001</v>
+        <v>1.660385250468</v>
       </c>
       <c r="S2">
-        <v>0.005695336160579437</v>
+        <v>0.01328647416804158</v>
       </c>
       <c r="T2">
-        <v>0.005695336160579438</v>
+        <v>0.01328647416804158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.233212</v>
       </c>
       <c r="I3">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="J3">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>2.275402</v>
       </c>
       <c r="O3">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="P3">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="Q3">
         <v>0.05896122791377779</v>
@@ -641,10 +641,10 @@
         <v>0.530651051224</v>
       </c>
       <c r="S3">
-        <v>0.004109627218127766</v>
+        <v>0.004246292529004652</v>
       </c>
       <c r="T3">
-        <v>0.004109627218127767</v>
+        <v>0.004246292529004652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,40 +673,40 @@
         <v>0.233212</v>
       </c>
       <c r="I4">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="J4">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.218654</v>
+        <v>0.2202126666666667</v>
       </c>
       <c r="N4">
-        <v>0.655962</v>
+        <v>0.6606380000000001</v>
       </c>
       <c r="O4">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="P4">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="Q4">
-        <v>0.01699757888266667</v>
+        <v>0.01711874547288889</v>
       </c>
       <c r="R4">
-        <v>0.152978209944</v>
+        <v>0.154068709256</v>
       </c>
       <c r="S4">
-        <v>0.001184739790708422</v>
+        <v>0.00123286443616406</v>
       </c>
       <c r="T4">
-        <v>0.001184739790708422</v>
+        <v>0.00123286443616406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>0.233212</v>
       </c>
       <c r="I5">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="J5">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03987266666666667</v>
+        <v>0.1443573333333333</v>
       </c>
       <c r="N5">
-        <v>0.119618</v>
+        <v>0.433072</v>
       </c>
       <c r="O5">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="P5">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="Q5">
-        <v>0.003099594779555556</v>
+        <v>0.01122195414044445</v>
       </c>
       <c r="R5">
-        <v>0.027896353016</v>
+        <v>0.100997587264</v>
       </c>
       <c r="S5">
-        <v>0.0002160433139190381</v>
+        <v>0.0008081870360143405</v>
       </c>
       <c r="T5">
-        <v>0.0002160433139190381</v>
+        <v>0.0008081870360143405</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>0.233212</v>
       </c>
       <c r="I6">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="J6">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.064611</v>
+        <v>0.09103299999999999</v>
       </c>
       <c r="N6">
-        <v>0.193833</v>
+        <v>0.273099</v>
       </c>
       <c r="O6">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="P6">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="Q6">
-        <v>0.005022686844</v>
+        <v>0.007076662665333333</v>
       </c>
       <c r="R6">
-        <v>0.045204181596</v>
+        <v>0.06368996398799999</v>
       </c>
       <c r="S6">
-        <v>0.0003500837973120175</v>
+        <v>0.0005096498303942078</v>
       </c>
       <c r="T6">
-        <v>0.0003500837973120176</v>
+        <v>0.0005096498303942079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>0.233212</v>
       </c>
       <c r="I7">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="J7">
-        <v>0.01362303019483903</v>
+        <v>0.02062465614444723</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3815196666666667</v>
+        <v>0.09666633333333334</v>
       </c>
       <c r="N7">
-        <v>1.144559</v>
+        <v>0.289999</v>
       </c>
       <c r="O7">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="P7">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="Q7">
-        <v>0.02965832150088889</v>
+        <v>0.007514582976444446</v>
       </c>
       <c r="R7">
-        <v>0.266924893508</v>
+        <v>0.067631246788</v>
       </c>
       <c r="S7">
-        <v>0.002067199914192348</v>
+        <v>0.0005411881448283951</v>
       </c>
       <c r="T7">
-        <v>0.002067199914192349</v>
+        <v>0.0005411881448283951</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.81785</v>
+        <v>0.4764526666666666</v>
       </c>
       <c r="H8">
-        <v>2.45355</v>
+        <v>1.429358</v>
       </c>
       <c r="I8">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="J8">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.051123666666667</v>
+        <v>2.373213</v>
       </c>
       <c r="N8">
-        <v>3.153371</v>
+        <v>7.119638999999999</v>
       </c>
       <c r="O8">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="P8">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="Q8">
-        <v>0.8596614907833334</v>
+        <v>1.130723662418</v>
       </c>
       <c r="R8">
-        <v>7.736953417050001</v>
+        <v>10.176512961762</v>
       </c>
       <c r="S8">
-        <v>0.05991883795340582</v>
+        <v>0.08143289429310487</v>
       </c>
       <c r="T8">
-        <v>0.05991883795340582</v>
+        <v>0.08143289429310487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.81785</v>
+        <v>0.4764526666666666</v>
       </c>
       <c r="H9">
-        <v>2.45355</v>
+        <v>1.429358</v>
       </c>
       <c r="I9">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="J9">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.275402</v>
       </c>
       <c r="O9">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="P9">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="Q9">
-        <v>0.6203125085666666</v>
+        <v>0.3613737835462222</v>
       </c>
       <c r="R9">
-        <v>5.5828125771</v>
+        <v>3.252364051916</v>
       </c>
       <c r="S9">
-        <v>0.04323609360169021</v>
+        <v>0.0260255569896619</v>
       </c>
       <c r="T9">
-        <v>0.04323609360169022</v>
+        <v>0.0260255569896619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.81785</v>
+        <v>0.4764526666666666</v>
       </c>
       <c r="H10">
-        <v>2.45355</v>
+        <v>1.429358</v>
       </c>
       <c r="I10">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="J10">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.218654</v>
+        <v>0.2202126666666667</v>
       </c>
       <c r="N10">
-        <v>0.655962</v>
+        <v>0.6606380000000001</v>
       </c>
       <c r="O10">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="P10">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="Q10">
-        <v>0.1788261739</v>
+        <v>0.1049209122671111</v>
       </c>
       <c r="R10">
-        <v>1.6094355651</v>
+        <v>0.944288210404</v>
       </c>
       <c r="S10">
-        <v>0.01246427419469259</v>
+        <v>0.007556234862471008</v>
       </c>
       <c r="T10">
-        <v>0.01246427419469259</v>
+        <v>0.007556234862471008</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.81785</v>
+        <v>0.4764526666666666</v>
       </c>
       <c r="H11">
-        <v>2.45355</v>
+        <v>1.429358</v>
       </c>
       <c r="I11">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="J11">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03987266666666667</v>
+        <v>0.1443573333333333</v>
       </c>
       <c r="N11">
-        <v>0.119618</v>
+        <v>0.433072</v>
       </c>
       <c r="O11">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="P11">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="Q11">
-        <v>0.03260986043333333</v>
+        <v>0.06877943641955556</v>
       </c>
       <c r="R11">
-        <v>0.2934887439</v>
+        <v>0.619014927776</v>
       </c>
       <c r="S11">
-        <v>0.002272923661158327</v>
+        <v>0.004953384068673078</v>
       </c>
       <c r="T11">
-        <v>0.002272923661158328</v>
+        <v>0.004953384068673078</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.81785</v>
+        <v>0.4764526666666666</v>
       </c>
       <c r="H12">
-        <v>2.45355</v>
+        <v>1.429358</v>
       </c>
       <c r="I12">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="J12">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.064611</v>
+        <v>0.09103299999999999</v>
       </c>
       <c r="N12">
-        <v>0.193833</v>
+        <v>0.273099</v>
       </c>
       <c r="O12">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="P12">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="Q12">
-        <v>0.05284210635</v>
+        <v>0.04337291560466666</v>
       </c>
       <c r="R12">
-        <v>0.47557895715</v>
+        <v>0.390356240442</v>
       </c>
       <c r="S12">
-        <v>0.003683121369804729</v>
+        <v>0.003123647420684201</v>
       </c>
       <c r="T12">
-        <v>0.00368312136980473</v>
+        <v>0.003123647420684202</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.81785</v>
+        <v>0.4764526666666666</v>
       </c>
       <c r="H13">
-        <v>2.45355</v>
+        <v>1.429358</v>
       </c>
       <c r="I13">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="J13">
-        <v>0.1433236099966867</v>
+        <v>0.1264086636078538</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3815196666666667</v>
+        <v>0.09666633333333334</v>
       </c>
       <c r="N13">
-        <v>1.144559</v>
+        <v>0.289999</v>
       </c>
       <c r="O13">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="P13">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="Q13">
-        <v>0.3120258593833333</v>
+        <v>0.04605693229355556</v>
       </c>
       <c r="R13">
-        <v>2.80823273445</v>
+        <v>0.414512390642</v>
       </c>
       <c r="S13">
-        <v>0.02174835921593501</v>
+        <v>0.003316945973258774</v>
       </c>
       <c r="T13">
-        <v>0.02174835921593501</v>
+        <v>0.003316945973258774</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.127819666666667</v>
+        <v>3.094982666666667</v>
       </c>
       <c r="H14">
-        <v>9.383459</v>
+        <v>9.284948</v>
       </c>
       <c r="I14">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="J14">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.051123666666667</v>
+        <v>2.373213</v>
       </c>
       <c r="N14">
-        <v>3.153371</v>
+        <v>7.119638999999999</v>
       </c>
       <c r="O14">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="P14">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="Q14">
-        <v>3.287725276698779</v>
+        <v>7.345053099307999</v>
       </c>
       <c r="R14">
-        <v>29.589527490289</v>
+        <v>66.10547789377199</v>
       </c>
       <c r="S14">
-        <v>0.2291561041199191</v>
+        <v>0.5289788765312647</v>
       </c>
       <c r="T14">
-        <v>0.2291561041199191</v>
+        <v>0.5289788765312647</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.127819666666667</v>
+        <v>3.094982666666667</v>
       </c>
       <c r="H15">
-        <v>9.383459</v>
+        <v>9.284948</v>
       </c>
       <c r="I15">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="J15">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.275402</v>
       </c>
       <c r="O15">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="P15">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="Q15">
-        <v>2.372349041724223</v>
+        <v>2.347443249899556</v>
       </c>
       <c r="R15">
-        <v>21.351141375518</v>
+        <v>21.126989249096</v>
       </c>
       <c r="S15">
-        <v>0.1653539204954546</v>
+        <v>0.1690590763965692</v>
       </c>
       <c r="T15">
-        <v>0.1653539204954546</v>
+        <v>0.1690590763965692</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.127819666666667</v>
+        <v>3.094982666666667</v>
       </c>
       <c r="H16">
-        <v>9.383459</v>
+        <v>9.284948</v>
       </c>
       <c r="I16">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="J16">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.218654</v>
+        <v>0.2202126666666667</v>
       </c>
       <c r="N16">
-        <v>0.655962</v>
+        <v>0.6606380000000001</v>
       </c>
       <c r="O16">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="P16">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="Q16">
-        <v>0.6839102813953334</v>
+        <v>0.6815543863137778</v>
       </c>
       <c r="R16">
-        <v>6.155192532558001</v>
+        <v>6.133989476824</v>
       </c>
       <c r="S16">
-        <v>0.04766889033060504</v>
+        <v>0.04908444754486313</v>
       </c>
       <c r="T16">
-        <v>0.04766889033060504</v>
+        <v>0.04908444754486313</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.127819666666667</v>
+        <v>3.094982666666667</v>
       </c>
       <c r="H17">
-        <v>9.383459</v>
+        <v>9.284948</v>
       </c>
       <c r="I17">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="J17">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03987266666666667</v>
+        <v>0.1443573333333333</v>
       </c>
       <c r="N17">
-        <v>0.119618</v>
+        <v>0.433072</v>
       </c>
       <c r="O17">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="P17">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="Q17">
-        <v>0.1247145109624445</v>
+        <v>0.4467834444728889</v>
       </c>
       <c r="R17">
-        <v>1.122430598662</v>
+        <v>4.021051000256</v>
       </c>
       <c r="S17">
-        <v>0.008692664092685725</v>
+        <v>0.03217662300253538</v>
       </c>
       <c r="T17">
-        <v>0.008692664092685726</v>
+        <v>0.03217662300253538</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.127819666666667</v>
+        <v>3.094982666666667</v>
       </c>
       <c r="H18">
-        <v>9.383459</v>
+        <v>9.284948</v>
       </c>
       <c r="I18">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="J18">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.064611</v>
+        <v>0.09103299999999999</v>
       </c>
       <c r="N18">
-        <v>0.193833</v>
+        <v>0.273099</v>
       </c>
       <c r="O18">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="P18">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="Q18">
-        <v>0.202091556483</v>
+        <v>0.2817455570946666</v>
       </c>
       <c r="R18">
-        <v>1.818824008347</v>
+        <v>2.535710013852</v>
       </c>
       <c r="S18">
-        <v>0.01408588305336615</v>
+        <v>0.02029086056214534</v>
       </c>
       <c r="T18">
-        <v>0.01408588305336615</v>
+        <v>0.02029086056214534</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.127819666666667</v>
+        <v>3.094982666666667</v>
       </c>
       <c r="H19">
-        <v>9.383459</v>
+        <v>9.284948</v>
       </c>
       <c r="I19">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="J19">
-        <v>0.548132794577612</v>
+        <v>0.8211363901474755</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.3815196666666667</v>
+        <v>0.09666633333333334</v>
       </c>
       <c r="N19">
-        <v>1.144559</v>
+        <v>0.289999</v>
       </c>
       <c r="O19">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="P19">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="Q19">
-        <v>1.193324716620111</v>
+        <v>0.2991806261168889</v>
       </c>
       <c r="R19">
-        <v>10.739922449581</v>
+        <v>2.692625635052</v>
       </c>
       <c r="S19">
-        <v>0.08317533248558144</v>
+        <v>0.02154650611009776</v>
       </c>
       <c r="T19">
-        <v>0.08317533248558145</v>
+        <v>0.02154650611009776</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>26</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.682910333333333</v>
+        <v>0.119973</v>
       </c>
       <c r="H20">
-        <v>5.048731</v>
+        <v>0.359919</v>
       </c>
       <c r="I20">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="J20">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.051123666666667</v>
+        <v>2.373213</v>
       </c>
       <c r="N20">
-        <v>3.153371</v>
+        <v>7.119638999999999</v>
       </c>
       <c r="O20">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="P20">
-        <v>0.4180667648183785</v>
+        <v>0.6442034269559781</v>
       </c>
       <c r="Q20">
-        <v>1.768946880244556</v>
+        <v>0.284721483249</v>
       </c>
       <c r="R20">
-        <v>15.920521922201</v>
+        <v>2.562493349241</v>
       </c>
       <c r="S20">
-        <v>0.1232964865844741</v>
+        <v>0.02050518196356687</v>
       </c>
       <c r="T20">
-        <v>0.1232964865844741</v>
+        <v>0.02050518196356687</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.682910333333333</v>
+        <v>0.119973</v>
       </c>
       <c r="H21">
-        <v>5.048731</v>
+        <v>0.359919</v>
       </c>
       <c r="I21">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="J21">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.275402</v>
       </c>
       <c r="O21">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="P21">
-        <v>0.3016676289600139</v>
+        <v>0.2058842823494965</v>
       </c>
       <c r="Q21">
-        <v>1.276432512762445</v>
+        <v>0.090995601382</v>
       </c>
       <c r="R21">
-        <v>11.487892614862</v>
+        <v>0.818960412438</v>
       </c>
       <c r="S21">
-        <v>0.08896798764474131</v>
+        <v>0.006553356434260781</v>
       </c>
       <c r="T21">
-        <v>0.08896798764474133</v>
+        <v>0.006553356434260781</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.682910333333333</v>
+        <v>0.119973</v>
       </c>
       <c r="H22">
-        <v>5.048731</v>
+        <v>0.359919</v>
       </c>
       <c r="I22">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="J22">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.218654</v>
+        <v>0.2202126666666667</v>
       </c>
       <c r="N22">
-        <v>0.655962</v>
+        <v>0.6606380000000001</v>
       </c>
       <c r="O22">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="P22">
-        <v>0.08696595205061287</v>
+        <v>0.05977624196638952</v>
       </c>
       <c r="Q22">
-        <v>0.3679750760246667</v>
+        <v>0.026419574258</v>
       </c>
       <c r="R22">
-        <v>3.311775684222</v>
+        <v>0.237776168322</v>
       </c>
       <c r="S22">
-        <v>0.02564804773460681</v>
+        <v>0.001902695122891328</v>
       </c>
       <c r="T22">
-        <v>0.02564804773460681</v>
+        <v>0.001902695122891328</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.682910333333333</v>
+        <v>0.119973</v>
       </c>
       <c r="H23">
-        <v>5.048731</v>
+        <v>0.359919</v>
       </c>
       <c r="I23">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="J23">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.03987266666666667</v>
+        <v>0.1443573333333333</v>
       </c>
       <c r="N23">
-        <v>0.119618</v>
+        <v>0.433072</v>
       </c>
       <c r="O23">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="P23">
-        <v>0.0158586827474613</v>
+        <v>0.03918547928043534</v>
       </c>
       <c r="Q23">
-        <v>0.06710212275088889</v>
+        <v>0.017318982352</v>
       </c>
       <c r="R23">
-        <v>0.603919104758</v>
+        <v>0.155870841168</v>
       </c>
       <c r="S23">
-        <v>0.00467705167969821</v>
+        <v>0.001247285173212551</v>
       </c>
       <c r="T23">
-        <v>0.004677051679698211</v>
+        <v>0.001247285173212551</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.682910333333333</v>
+        <v>0.119973</v>
       </c>
       <c r="H24">
-        <v>5.048731</v>
+        <v>0.359919</v>
       </c>
       <c r="I24">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="J24">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.064611</v>
+        <v>0.09103299999999999</v>
       </c>
       <c r="N24">
-        <v>0.193833</v>
+        <v>0.273099</v>
       </c>
       <c r="O24">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="P24">
-        <v>0.02569793888034131</v>
+        <v>0.0247107067785671</v>
       </c>
       <c r="Q24">
-        <v>0.108734519547</v>
+        <v>0.010921502109</v>
       </c>
       <c r="R24">
-        <v>0.978610675923</v>
+        <v>0.09829351898099999</v>
       </c>
       <c r="S24">
-        <v>0.007578850659858409</v>
+        <v>0.0007865489653433479</v>
       </c>
       <c r="T24">
-        <v>0.007578850659858411</v>
+        <v>0.000786548965343348</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.682910333333333</v>
+        <v>0.119973</v>
       </c>
       <c r="H25">
-        <v>5.048731</v>
+        <v>0.359919</v>
       </c>
       <c r="I25">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="J25">
-        <v>0.2949205652308622</v>
+        <v>0.03183029010022342</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.3815196666666667</v>
+        <v>0.09666633333333334</v>
       </c>
       <c r="N25">
-        <v>1.144559</v>
+        <v>0.289999</v>
       </c>
       <c r="O25">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="P25">
-        <v>0.1517430325431922</v>
+        <v>0.02623986266913347</v>
       </c>
       <c r="Q25">
-        <v>0.6420633894032223</v>
+        <v>0.011597350009</v>
       </c>
       <c r="R25">
-        <v>5.778570504629001</v>
+        <v>0.104376150081</v>
       </c>
       <c r="S25">
-        <v>0.04475214092748336</v>
+        <v>0.000835222440948541</v>
       </c>
       <c r="T25">
-        <v>0.04475214092748336</v>
+        <v>0.000835222440948541</v>
       </c>
     </row>
   </sheetData>
